--- a/biology/Botanique/Brocchinia_paniculata/Brocchinia_paniculata.xlsx
+++ b/biology/Botanique/Brocchinia_paniculata/Brocchinia_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brocchinia paniculata est une espèce de plante de la famille des Bromeliaceae, qui se rencontre en Colombie et au Venezuela.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pitcairnia brocchinia D.Dietr[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pitcairnia brocchinia D.Dietr.</t>
         </is>
       </c>
     </row>
@@ -543,10 +557,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre en Colombie et au Venezuela[GS 1].
-Habitat
-L'espèce se rencontre entre 200 et 1 500 mètres d'altitude dans les forêts de nuage dans le sud-ouest du Venezuela et l'est de la Colombie. Elle est épiphyte ou saxicole[3] et croît dans les aspérités des grès[GS 1]. Elle partage le même type d'habitat que Brocchinia micrantha qui se rencontre entre 500 et 1 200 mètres d'altitude à cheval sur le Venezuela et le Guyana[GS 1].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre en Colombie et au Venezuela[GS 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brocchinia_paniculata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brocchinia_paniculata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre entre 200 et 1 500 mètres d'altitude dans les forêts de nuage dans le sud-ouest du Venezuela et l'est de la Colombie. Elle est épiphyte ou saxicole et croît dans les aspérités des grès[GS 1]. Elle partage le même type d'habitat que Brocchinia micrantha qui se rencontre entre 500 et 1 200 mètres d'altitude à cheval sur le Venezuela et le Guyana[GS 1].
 </t>
         </is>
       </c>
